--- a/BackEnd/Documents/Kilometraje/KilometrajeNoviembre.xlsx
+++ b/BackEnd/Documents/Kilometraje/KilometrajeNoviembre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Kilometraje 2021</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>KILOMETRAJE</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>NE-161121</t>
   </si>
   <si>
     <t>RGB1</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E7"/>
+  <dimension ref="A4:E9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="20" outlineLevel="1" collapsed="1" customWidth="1"/>
@@ -536,12 +542,46 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>9523452</v>
       </c>
       <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9523452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>123456</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>10000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E9" s="1">
         <v>10000</v>
       </c>
     </row>

--- a/BackEnd/Documents/Kilometraje/KilometrajeNoviembre.xlsx
+++ b/BackEnd/Documents/Kilometraje/KilometrajeNoviembre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Kilometraje 2021</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>KILOMETRAJE</t>
+  </si>
+  <si>
+    <t>10011</t>
   </si>
   <si>
     <t>2010</t>
@@ -484,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E9"/>
+  <dimension ref="A4:E10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="20" outlineLevel="1" collapsed="1" customWidth="1"/>
@@ -542,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>9523452</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="E7" s="1">
-        <v>9523452</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -556,16 +559,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>123456</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>9523452</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>123456</v>
+        <v>9523452</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -573,15 +576,32 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>123456</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>10000</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>10000</v>
       </c>
     </row>
